--- a/docs/export/templates/SN102-2024-In-kind.xlsx
+++ b/docs/export/templates/SN102-2024-In-kind.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\root\GIT\unhcr-app\front\public\export\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\amice13\GIT\RAIS-Plus\front\public\export\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A17D27-0BAE-49E6-B2BA-C47CA020A383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2569F95D-C660-4309-95A1-9569A9905DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0D83F5B8-BFFE-4C84-84F2-873EAE6BAEAC}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{0D83F5B8-BFFE-4C84-84F2-873EAE6BAEAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="211">
   <si>
     <t>PARTNER NFI DISTRIBUTION REPORT</t>
   </si>
@@ -231,21 +231,6 @@
   </si>
   <si>
     <t>${table:record.number}</t>
-  </si>
-  <si>
-    <t>${table:record.name}</t>
-  </si>
-  <si>
-    <t>${table:record.taxId}</t>
-  </si>
-  <si>
-    <t>${table:record.phone}</t>
-  </si>
-  <si>
-    <t>${table:record.gender}</t>
-  </si>
-  <si>
-    <t>${table:record.age}</t>
   </si>
   <si>
     <t>${table:record.comment}</t>
@@ -389,9 +374,6 @@
     </r>
   </si>
   <si>
-    <t>${table:record.hhAddress.name}</t>
-  </si>
-  <si>
     <t>Timber board</t>
   </si>
   <si>
@@ -765,6 +747,30 @@
   </si>
   <si>
     <t>${table:record.familyStats.all}</t>
+  </si>
+  <si>
+    <t>${table:record.headOfHousehold.fullName}</t>
+  </si>
+  <si>
+    <t>${table:record.headOfHousehold.id}</t>
+  </si>
+  <si>
+    <t>${table:record.headOfHousehold.phone}</t>
+  </si>
+  <si>
+    <t>${table:record.headOfHousehold.gender}</t>
+  </si>
+  <si>
+    <t>${table:record.headOfHousehold.age}</t>
+  </si>
+  <si>
+    <t>${table:record.household.fullAddress}</t>
+  </si>
+  <si>
+    <t>${table:record.items['SH-CM-10151-1']}</t>
+  </si>
+  <si>
+    <t>${table:record.items['SH-CM-10018-1']}</t>
   </si>
 </sst>
 </file>
@@ -1484,9 +1490,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1524,7 +1530,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1630,7 +1636,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1772,7 +1778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1786,12 +1792,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="33.88671875" customWidth="1"/>
+    <col min="1" max="2" width="33.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="69" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="22" t="s">
         <v>36</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="55.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="22" t="s">
         <v>38</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="22" t="s">
         <v>40</v>
       </c>
@@ -1823,7 +1829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="69" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="22" t="s">
         <v>42</v>
       </c>
@@ -1831,11 +1837,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
     </row>
-    <row r="8" spans="1:2" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="55.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="23" t="s">
         <v>44</v>
       </c>
@@ -1843,20 +1849,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1920,7 +1926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1992,7 +1998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -2000,7 +2006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -2008,7 +2014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -2056,7 +2062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -2072,7 +2078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2080,7 +2086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2100,25 +2106,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE15C91-3DA2-449F-A7C4-9A49A11CFA57}">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AQ12" sqref="AQ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.1015625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.3125" customWidth="1"/>
+    <col min="5" max="5" width="24.1015625" customWidth="1"/>
+    <col min="6" max="6" width="20.89453125" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="71" width="7.88671875" customWidth="1"/>
-    <col min="72" max="72" width="47.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.89453125" customWidth="1"/>
+    <col min="9" max="71" width="7.89453125" customWidth="1"/>
+    <col min="72" max="72" width="47.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:72" ht="27.6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:72" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="1:72" ht="27" x14ac:dyDescent="0.85">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -2190,7 +2196,7 @@
       <c r="BS2" s="2"/>
       <c r="BT2" s="2"/>
     </row>
-    <row r="3" spans="1:72" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:72" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A3" s="3"/>
       <c r="B3" s="36" t="s">
         <v>1</v>
@@ -2264,13 +2270,13 @@
       <c r="BS3" s="2"/>
       <c r="BT3" s="2"/>
     </row>
-    <row r="4" spans="1:72" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:72" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A4" s="3"/>
       <c r="B4" s="36" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2338,19 +2344,19 @@
       <c r="BS4" s="2"/>
       <c r="BT4" s="2"/>
     </row>
-    <row r="5" spans="1:72" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:72" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="4"/>
       <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F5" s="37"/>
       <c r="K5" s="2"/>
@@ -2416,7 +2422,7 @@
       <c r="BS5" s="2"/>
       <c r="BT5" s="2"/>
     </row>
-    <row r="6" spans="1:72" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:72" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A6" s="4"/>
       <c r="B6" s="39" t="s">
         <v>4</v>
@@ -2496,7 +2502,7 @@
       <c r="BS6" s="2"/>
       <c r="BT6" s="2"/>
     </row>
-    <row r="7" spans="1:72" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:72" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A7" s="4"/>
       <c r="B7" s="39" t="s">
         <v>5</v>
@@ -2570,7 +2576,7 @@
       <c r="BS7" s="2"/>
       <c r="BT7" s="2"/>
     </row>
-    <row r="8" spans="1:72" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:72" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A8" s="5"/>
       <c r="B8" s="35" t="s">
         <v>6</v>
@@ -2644,7 +2650,7 @@
       <c r="BS8" s="2"/>
       <c r="BT8" s="2"/>
     </row>
-    <row r="9" spans="1:72" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:72" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:72" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:72" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14"/>
       <c r="B10" s="46" t="s">
         <v>8</v>
@@ -2925,7 +2931,7 @@
       <c r="G10" s="48"/>
       <c r="H10" s="30"/>
       <c r="I10" s="49" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
@@ -2991,440 +2997,440 @@
       <c r="BS10" s="50"/>
       <c r="BT10" s="29"/>
     </row>
-    <row r="11" spans="1:72" ht="174" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:72" ht="174" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="H11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="J11" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="K11" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="L11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="N11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="P11" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="Q11" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="R11" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="S11" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="T11" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="U11" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="V11" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="W11" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="X11" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="Y11" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="Z11" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="U11" s="18" t="s">
+      <c r="AA11" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="V11" s="18" t="s">
+      <c r="AB11" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="AC11" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="X11" s="18" t="s">
+      <c r="AD11" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="Y11" s="18" t="s">
+      <c r="AE11" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="Z11" s="18" t="s">
+      <c r="AF11" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="AA11" s="18" t="s">
+      <c r="AG11" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="AB11" s="18" t="s">
+      <c r="AH11" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="AC11" s="18" t="s">
+      <c r="AI11" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="AD11" s="18" t="s">
+      <c r="AJ11" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="AE11" s="18" t="s">
+      <c r="AK11" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="AF11" s="18" t="s">
+      <c r="AL11" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AG11" s="18" t="s">
+      <c r="AM11" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AH11" s="18" t="s">
+      <c r="AN11" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="AI11" s="18" t="s">
+      <c r="AO11" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AJ11" s="18" t="s">
+      <c r="AP11" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AK11" s="18" t="s">
+      <c r="AQ11" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AL11" s="18" t="s">
+      <c r="AR11" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="AM11" s="18" t="s">
+      <c r="AS11" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="AN11" s="18" t="s">
+      <c r="AT11" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="AO11" s="18" t="s">
+      <c r="AU11" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="AP11" s="18" t="s">
+      <c r="AV11" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="AQ11" s="18" t="s">
+      <c r="AW11" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="AR11" s="18" t="s">
+      <c r="AX11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="AS11" s="18" t="s">
+      <c r="AY11" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="AT11" s="18" t="s">
+      <c r="AZ11" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="AU11" s="18" t="s">
+      <c r="BA11" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="AV11" s="18" t="s">
+      <c r="BB11" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="AW11" s="18" t="s">
+      <c r="BC11" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="AX11" s="18" t="s">
+      <c r="BD11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="AY11" s="18" t="s">
+      <c r="BE11" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="AZ11" s="18" t="s">
+      <c r="BF11" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="BA11" s="18" t="s">
+      <c r="BG11" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="BB11" s="18" t="s">
+      <c r="BH11" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="BC11" s="18" t="s">
+      <c r="BI11" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="BD11" s="18" t="s">
+      <c r="BJ11" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="BE11" s="18" t="s">
+      <c r="BK11" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="BF11" s="18" t="s">
+      <c r="BL11" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="BG11" s="18" t="s">
+      <c r="BM11" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="BH11" s="18" t="s">
+      <c r="BN11" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="BI11" s="18" t="s">
+      <c r="BO11" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="BJ11" s="18" t="s">
+      <c r="BP11" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="BK11" s="18" t="s">
+      <c r="BQ11" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="BL11" s="18" t="s">
+      <c r="BR11" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="BM11" s="18" t="s">
+      <c r="BS11" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="BN11" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="BO11" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="BP11" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="BQ11" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="BR11" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="BS11" s="18" t="s">
-        <v>146</v>
       </c>
       <c r="BT11" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:72" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="N12" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q12" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="R12" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="S12" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="T12" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="U12" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="V12" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="W12" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="X12" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y12" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z12" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA12" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB12" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC12" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD12" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE12" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF12" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG12" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH12" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI12" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ12" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK12" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL12" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM12" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN12" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO12" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP12" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ12" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR12" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS12" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT12" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU12" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV12" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW12" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="AX12" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY12" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="AZ12" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA12" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB12" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC12" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD12" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE12" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF12" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG12" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH12" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI12" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ12" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK12" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL12" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="BM12" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="BN12" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="BO12" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP12" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="BQ12" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="BR12" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="BS12" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT12" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="J12" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="M12" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="N12" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="O12" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="P12" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q12" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="R12" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="S12" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="T12" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="U12" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="V12" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="W12" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="X12" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y12" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z12" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA12" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB12" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC12" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD12" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE12" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF12" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG12" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH12" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI12" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ12" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK12" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL12" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM12" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN12" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO12" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP12" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ12" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="AR12" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="AS12" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT12" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU12" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="AV12" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="AW12" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="AX12" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY12" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="AZ12" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="BA12" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB12" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC12" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="BD12" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="BE12" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="BF12" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="BG12" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="BH12" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="BI12" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="BJ12" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="BK12" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="BL12" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="BM12" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="BN12" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="BO12" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="BP12" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="BQ12" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="BR12" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="BS12" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT12" s="20" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3445,11 +3451,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
